--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unal\IDEAM_EDEN\Hidrogeoquimica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778E4003-6B39-48EC-8EE7-300A5A5F4E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E88E2-4150-4BB6-83F4-0524E8E693B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1039,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="N8">
-        <v>75.087703399999995</v>
+        <v>-75.087703399999995</v>
       </c>
       <c r="O8">
         <v>5.3396163000000003</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unal\IDEAM_EDEN\Hidrogeoquimica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2E88E2-4150-4BB6-83F4-0524E8E693B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA64ACD8-F3BA-4712-82BD-3CE5AD53A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Sample</t>
   </si>
@@ -246,16 +246,103 @@
     <t>lon</t>
   </si>
   <si>
-    <t>Este</t>
-  </si>
-  <si>
-    <t>Norte</t>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>HCO₃⁻</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>CO₃²⁻</t>
+  </si>
+  <si>
+    <t>Cl⁻</t>
+  </si>
+  <si>
+    <t>CE (25°C)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>SO₄²⁻</t>
+  </si>
+  <si>
+    <t>S²⁻</t>
+  </si>
+  <si>
+    <t>&lt;10.00</t>
+  </si>
+  <si>
+    <t>&lt;1.00</t>
+  </si>
+  <si>
+    <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>&lt;0.050</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>&lt;1.000</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>&lt;8.00</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -299,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +395,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -650,13 +743,13 @@
     <col min="1" max="2" width="28.125" customWidth="1"/>
     <col min="3" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="13" width="10.625" customWidth="1"/>
+    <col min="24" max="24" width="16.375" customWidth="1"/>
+    <col min="25" max="25" width="11" customWidth="1"/>
+    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="27" max="28" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1">
+    <row r="1" spans="1:30" ht="14.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,35 +774,74 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Y1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Z1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AA1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AC1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AD1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1">
+    <row r="2" spans="1:30" ht="14.25" customHeight="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -735,29 +867,74 @@
       <c r="H2">
         <v>266</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J2" s="6">
+        <v>54.27</v>
+      </c>
+      <c r="K2" s="6">
+        <v>18.048999999999999</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="6">
+        <v>54.63</v>
+      </c>
+      <c r="N2" s="6">
+        <v>266.5</v>
+      </c>
+      <c r="O2" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="S2" s="6">
+        <v>6.47</v>
+      </c>
+      <c r="T2" s="6">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="U2" s="6">
+        <v>29.838000000000001</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Y2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AA2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AB2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3">
+      <c r="AC2" s="3">
         <v>-75.115409</v>
       </c>
-      <c r="O2" s="3">
+      <c r="AD2" s="3">
         <v>5.3213112999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1">
+    <row r="3" spans="1:30" ht="14.25" customHeight="1">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -783,29 +960,74 @@
       <c r="H3">
         <v>525</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>183.15</v>
+      </c>
+      <c r="K3" s="6">
+        <v>62.77</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="6">
+        <v>36.53</v>
+      </c>
+      <c r="N3" s="6">
+        <v>528.5</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>7.2389999999999999</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="S3" s="6">
+        <v>7.54</v>
+      </c>
+      <c r="T3" s="6">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="U3" s="6">
+        <v>24.952000000000002</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="Y3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Z3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="AA3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
+      <c r="AB3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3">
+      <c r="AC3" s="3">
         <v>-75.109236600000003</v>
       </c>
-      <c r="O3" s="3">
+      <c r="AD3" s="3">
         <v>5.3261282999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1">
+    <row r="4" spans="1:30" ht="14.25" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -831,29 +1053,74 @@
       <c r="H4">
         <v>302</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>74.13</v>
+      </c>
+      <c r="K4" s="6">
+        <v>29.759</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="6">
+        <v>43.95</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="T4" s="6">
+        <v>2.431</v>
+      </c>
+      <c r="U4" s="6">
+        <v>26.789000000000001</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="Y4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Z4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AA4" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AB4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="3">
+      <c r="AC4" s="3">
         <v>-75.106815999999995</v>
       </c>
-      <c r="O4" s="3">
+      <c r="AD4" s="3">
         <v>5.3278647000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1">
+    <row r="5" spans="1:30" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -879,29 +1146,74 @@
       <c r="H5">
         <v>235</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="K5" s="6">
+        <v>23.628</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="6">
+        <v>30.13</v>
+      </c>
+      <c r="N5" s="6">
+        <v>236.5</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2.194</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="S5" s="6">
+        <v>7.18</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2.8140000000000001</v>
+      </c>
+      <c r="U5" s="6">
+        <v>21.297000000000001</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Y5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Z5" t="s">
         <v>16</v>
       </c>
-      <c r="L5" t="s">
+      <c r="AA5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="AB5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="3">
+      <c r="AC5" s="3">
         <v>-75.100950499999996</v>
       </c>
-      <c r="O5" s="3">
+      <c r="AD5" s="3">
         <v>5.3320784000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1">
+    <row r="6" spans="1:30" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -927,29 +1239,74 @@
       <c r="H6">
         <v>222</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6">
+        <v>0.187</v>
+      </c>
+      <c r="J6" s="6">
+        <v>59.38</v>
+      </c>
+      <c r="K6" s="6">
+        <v>20.311</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6">
+        <v>25.66</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3.081</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.495</v>
+      </c>
+      <c r="S6" s="6">
+        <v>6.93</v>
+      </c>
+      <c r="T6" s="6">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="U6" s="6">
+        <v>10.724</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="Y6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Z6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" t="s">
+      <c r="AA6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
+      <c r="AB6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="3">
+      <c r="AC6" s="3">
         <v>-75.096991099999997</v>
       </c>
-      <c r="O6" s="3">
+      <c r="AD6" s="3">
         <v>5.3349224</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1">
+    <row r="7" spans="1:30" ht="14.25" customHeight="1">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -975,29 +1332,74 @@
       <c r="H7">
         <v>106</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>26.41</v>
+      </c>
+      <c r="K7" s="6">
+        <v>6.4530000000000003</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="6">
+        <v>12.57</v>
+      </c>
+      <c r="N7" s="6">
+        <v>107.5</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>2.637</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="6">
+        <v>6.77</v>
+      </c>
+      <c r="T7" s="6">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="U7" s="6">
+        <v>10.333</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>15</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Z7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="AA7" t="s">
         <v>17</v>
       </c>
-      <c r="M7" t="s">
+      <c r="AB7" t="s">
         <v>21</v>
       </c>
-      <c r="N7">
+      <c r="AC7">
         <v>-75.092924699999998</v>
       </c>
-      <c r="O7">
+      <c r="AD7">
         <v>5.3378614000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1">
+    <row r="8" spans="1:30" ht="14.25" customHeight="1">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1023,29 +1425,74 @@
       <c r="H8">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>12.34</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2.653</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="6">
+        <v>10.48</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" s="6">
+        <v>8.16</v>
+      </c>
+      <c r="T8" s="6">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="U8" s="6">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="J8" t="s">
+      <c r="Y8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Z8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" t="s">
+      <c r="AA8" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
+      <c r="AB8" t="s">
         <v>17</v>
       </c>
-      <c r="N8">
+      <c r="AC8">
         <v>-75.087703399999995</v>
       </c>
-      <c r="O8">
+      <c r="AD8">
         <v>5.3396163000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1">
+    <row r="9" spans="1:30" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1071,29 +1518,74 @@
       <c r="H9">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="6">
+        <v>9.41</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="6">
+        <v>7.84</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1.413</v>
+      </c>
+      <c r="U9" s="6">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Y9" t="s">
         <v>34</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Z9" t="s">
         <v>16</v>
       </c>
-      <c r="L9" t="s">
+      <c r="AA9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" t="s">
+      <c r="AB9" t="s">
         <v>17</v>
       </c>
-      <c r="N9">
+      <c r="AC9">
         <v>-75.094025099999996</v>
       </c>
-      <c r="O9" s="4">
+      <c r="AD9" s="4">
         <v>5.3407644000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1">
+    <row r="10" spans="1:30" ht="14.25" customHeight="1">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1119,29 +1611,74 @@
       <c r="H10">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J10" s="6">
+        <v>12.24</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.87</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0.155</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="6">
+        <v>6.82</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1.597</v>
+      </c>
+      <c r="U10" s="6">
+        <v>6.8079999999999998</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
-      <c r="J10" t="s">
+      <c r="Y10" t="s">
         <v>34</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Z10" t="s">
         <v>16</v>
       </c>
-      <c r="L10" t="s">
+      <c r="AA10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" t="s">
+      <c r="AB10" t="s">
         <v>21</v>
       </c>
-      <c r="N10">
+      <c r="AC10">
         <v>-75.098443900000007</v>
       </c>
-      <c r="O10">
+      <c r="AD10">
         <v>5.3385324000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1">
+    <row r="11" spans="1:30" ht="14.25" customHeight="1">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1167,29 +1704,74 @@
       <c r="H11">
         <v>72</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3.9660000000000002</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" s="6">
+        <v>6.89</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2.8540000000000001</v>
+      </c>
+      <c r="U11" s="6">
+        <v>7.399</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
-      <c r="K11" t="s">
+      <c r="Z11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
+      <c r="AA11" t="s">
         <v>21</v>
       </c>
-      <c r="M11" t="s">
+      <c r="AB11" t="s">
         <v>21</v>
       </c>
-      <c r="N11">
+      <c r="AC11">
         <v>-75.099215900000004</v>
       </c>
-      <c r="O11">
+      <c r="AD11">
         <v>5.3306282999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1">
+    <row r="12" spans="1:30" ht="14.25" customHeight="1">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1215,29 +1797,74 @@
       <c r="H12">
         <v>40.5</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="J12" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="6">
+        <v>6.96</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="U12" s="6">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
         <v>33</v>
       </c>
-      <c r="J12" t="s">
+      <c r="Y12" t="s">
         <v>34</v>
       </c>
-      <c r="K12" t="s">
+      <c r="Z12" t="s">
         <v>16</v>
       </c>
-      <c r="L12" t="s">
+      <c r="AA12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="s">
+      <c r="AB12" t="s">
         <v>21</v>
       </c>
-      <c r="N12">
+      <c r="AC12">
         <v>-75.100163100000003</v>
       </c>
-      <c r="O12">
+      <c r="AD12">
         <v>5.3391753</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+    <row r="13" spans="1:30" ht="14.25" customHeight="1">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1263,29 +1890,74 @@
       <c r="H13">
         <v>93</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J13" s="6">
+        <v>27.18</v>
+      </c>
+      <c r="K13" s="6">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="6">
+        <v>6.87</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2.258</v>
+      </c>
+      <c r="U13" s="6">
+        <v>8.8789999999999996</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
         <v>33</v>
       </c>
-      <c r="J13" t="s">
+      <c r="Y13" t="s">
         <v>34</v>
       </c>
-      <c r="K13" t="s">
+      <c r="Z13" t="s">
         <v>16</v>
       </c>
-      <c r="L13" t="s">
+      <c r="AA13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="AB13" t="s">
         <v>17</v>
       </c>
-      <c r="N13">
+      <c r="AC13">
         <v>-75.108298300000001</v>
       </c>
-      <c r="O13">
+      <c r="AD13">
         <v>5.3286091999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+    <row r="14" spans="1:30" ht="14.25" customHeight="1">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1311,29 +1983,74 @@
       <c r="H14">
         <v>51</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J14" s="6">
+        <v>13.01</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2.742</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0.379</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="6">
+        <v>7.05</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1.494</v>
+      </c>
+      <c r="U14" s="6">
+        <v>6.032</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" t="s">
         <v>33</v>
       </c>
-      <c r="J14" t="s">
+      <c r="Y14" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Z14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
+      <c r="AA14" t="s">
         <v>28</v>
       </c>
-      <c r="M14" t="s">
+      <c r="AB14" t="s">
         <v>28</v>
       </c>
-      <c r="N14">
+      <c r="AC14">
         <v>-75.121144999999999</v>
       </c>
-      <c r="O14">
+      <c r="AD14">
         <v>5.3156451999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+    <row r="15" spans="1:30" ht="14.25" customHeight="1">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1359,29 +2076,74 @@
       <c r="H15">
         <v>64</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J15" s="6">
+        <v>26.51</v>
+      </c>
+      <c r="K15" s="6">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2.214</v>
+      </c>
+      <c r="U15" s="6">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
         <v>33</v>
       </c>
-      <c r="J15" t="s">
+      <c r="Y15" t="s">
         <v>34</v>
       </c>
-      <c r="K15" t="s">
+      <c r="Z15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" t="s">
+      <c r="AA15" t="s">
         <v>21</v>
       </c>
-      <c r="M15" t="s">
+      <c r="AB15" t="s">
         <v>21</v>
       </c>
-      <c r="N15">
+      <c r="AC15">
         <v>-75.078220000000002</v>
       </c>
-      <c r="O15">
+      <c r="AD15">
         <v>5.3320898999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+    <row r="16" spans="1:30" ht="14.25" customHeight="1">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1407,29 +2169,74 @@
       <c r="H16">
         <v>67</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J16" s="6">
+        <v>29.5</v>
+      </c>
+      <c r="K16" s="6">
+        <v>6.0519999999999996</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1.135</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" s="6">
+        <v>6.06</v>
+      </c>
+      <c r="T16" s="6">
+        <v>2.637</v>
+      </c>
+      <c r="U16" s="6">
+        <v>3.34</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="Y16" t="s">
         <v>52</v>
       </c>
-      <c r="K16" t="s">
+      <c r="Z16" t="s">
         <v>16</v>
       </c>
-      <c r="L16" t="s">
+      <c r="AA16" t="s">
         <v>17</v>
       </c>
-      <c r="M16" t="s">
+      <c r="AB16" t="s">
         <v>21</v>
       </c>
-      <c r="N16">
+      <c r="AC16">
         <v>-75.106399600000003</v>
       </c>
-      <c r="O16">
+      <c r="AD16">
         <v>5.3275249000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1">
+    <row r="17" spans="1:30" ht="14.25" customHeight="1">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1455,29 +2262,29 @@
       <c r="H17">
         <v>119</v>
       </c>
-      <c r="I17" t="s">
+      <c r="X17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" t="s">
+      <c r="Y17" t="s">
         <v>15</v>
       </c>
-      <c r="K17" t="s">
+      <c r="Z17" t="s">
         <v>16</v>
       </c>
-      <c r="L17" t="s">
+      <c r="AA17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" t="s">
+      <c r="AB17" t="s">
         <v>21</v>
       </c>
-      <c r="N17">
+      <c r="AC17">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O17">
+      <c r="AD17">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1">
+    <row r="18" spans="1:30" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1503,29 +2310,29 @@
       <c r="H18">
         <v>155.30000000000001</v>
       </c>
-      <c r="I18" t="s">
+      <c r="X18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" t="s">
+      <c r="Y18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="Z18" t="s">
         <v>56</v>
       </c>
-      <c r="L18" t="s">
+      <c r="AA18" t="s">
         <v>17</v>
       </c>
-      <c r="M18" t="s">
+      <c r="AB18" t="s">
         <v>21</v>
       </c>
-      <c r="N18">
+      <c r="AC18">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O18">
+      <c r="AD18">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1">
+    <row r="19" spans="1:30" ht="14.25" customHeight="1">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1551,29 +2358,29 @@
       <c r="H19">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
+      <c r="X19" t="s">
         <v>14</v>
       </c>
-      <c r="J19" t="s">
+      <c r="Y19" t="s">
         <v>15</v>
       </c>
-      <c r="K19" t="s">
+      <c r="Z19" t="s">
         <v>56</v>
       </c>
-      <c r="L19" t="s">
+      <c r="AA19" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="s">
+      <c r="AB19" t="s">
         <v>21</v>
       </c>
-      <c r="N19">
+      <c r="AC19">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O19">
+      <c r="AD19">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1">
+    <row r="20" spans="1:30" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1599,29 +2406,29 @@
       <c r="H20">
         <v>36.299999999999997</v>
       </c>
-      <c r="I20" t="s">
+      <c r="X20" t="s">
         <v>33</v>
       </c>
-      <c r="J20" t="s">
+      <c r="Y20" t="s">
         <v>34</v>
       </c>
-      <c r="K20" t="s">
+      <c r="Z20" t="s">
         <v>56</v>
       </c>
-      <c r="L20" t="s">
+      <c r="AA20" t="s">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="AB20" t="s">
         <v>17</v>
       </c>
-      <c r="N20">
+      <c r="AC20">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O20">
+      <c r="AD20">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1">
+    <row r="21" spans="1:30" ht="14.25" customHeight="1">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1647,29 +2454,29 @@
       <c r="H21">
         <v>50</v>
       </c>
-      <c r="I21" t="s">
+      <c r="X21" t="s">
         <v>33</v>
       </c>
-      <c r="J21" t="s">
+      <c r="Y21" t="s">
         <v>34</v>
       </c>
-      <c r="K21" t="s">
+      <c r="Z21" t="s">
         <v>56</v>
       </c>
-      <c r="L21" t="s">
+      <c r="AA21" t="s">
         <v>28</v>
       </c>
-      <c r="M21" t="s">
+      <c r="AB21" t="s">
         <v>28</v>
       </c>
-      <c r="N21">
+      <c r="AC21">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O21">
+      <c r="AD21">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1">
+    <row r="22" spans="1:30" ht="14.25" customHeight="1">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1695,29 +2502,29 @@
       <c r="H22">
         <v>6.08</v>
       </c>
-      <c r="I22" t="s">
+      <c r="X22" t="s">
         <v>33</v>
       </c>
-      <c r="J22" t="s">
+      <c r="Y22" t="s">
         <v>34</v>
       </c>
-      <c r="K22" t="s">
+      <c r="Z22" t="s">
         <v>56</v>
       </c>
-      <c r="L22" t="s">
+      <c r="AA22" t="s">
         <v>21</v>
       </c>
-      <c r="M22" t="s">
+      <c r="AB22" t="s">
         <v>21</v>
       </c>
-      <c r="N22">
+      <c r="AC22">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O22">
+      <c r="AD22">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1">
+    <row r="23" spans="1:30" ht="14.25" customHeight="1">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1743,29 +2550,29 @@
       <c r="H23">
         <v>73.7</v>
       </c>
-      <c r="I23" t="s">
+      <c r="X23" t="s">
         <v>51</v>
       </c>
-      <c r="J23" t="s">
+      <c r="Y23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" t="s">
+      <c r="Z23" t="s">
         <v>56</v>
       </c>
-      <c r="L23" t="s">
+      <c r="AA23" t="s">
         <v>28</v>
       </c>
-      <c r="M23" t="s">
+      <c r="AB23" t="s">
         <v>28</v>
       </c>
-      <c r="N23">
+      <c r="AC23">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O23">
+      <c r="AD23">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1">
+    <row r="24" spans="1:30" ht="14.25" customHeight="1">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1791,29 +2598,29 @@
       <c r="H24">
         <v>62</v>
       </c>
-      <c r="I24" t="s">
+      <c r="X24" t="s">
         <v>14</v>
       </c>
-      <c r="J24" t="s">
+      <c r="Y24" t="s">
         <v>15</v>
       </c>
-      <c r="K24" t="s">
+      <c r="Z24" t="s">
         <v>56</v>
       </c>
-      <c r="L24" t="s">
+      <c r="AA24" t="s">
         <v>17</v>
       </c>
-      <c r="M24" t="s">
+      <c r="AB24" t="s">
         <v>21</v>
       </c>
-      <c r="N24">
+      <c r="AC24">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O24">
+      <c r="AD24">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1">
+    <row r="25" spans="1:30" ht="14.25" customHeight="1">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1839,29 +2646,29 @@
       <c r="H25">
         <v>88.5</v>
       </c>
-      <c r="I25" t="s">
+      <c r="X25" t="s">
         <v>33</v>
       </c>
-      <c r="J25" t="s">
+      <c r="Y25" t="s">
         <v>34</v>
       </c>
-      <c r="K25" t="s">
+      <c r="Z25" t="s">
         <v>56</v>
       </c>
-      <c r="L25" t="s">
+      <c r="AA25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" t="s">
+      <c r="AB25" t="s">
         <v>17</v>
       </c>
-      <c r="N25">
+      <c r="AC25">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O25">
+      <c r="AD25">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+    <row r="26" spans="1:30" ht="14.25" customHeight="1">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1887,34 +2694,34 @@
       <c r="H26">
         <v>177.1</v>
       </c>
-      <c r="I26" t="s">
+      <c r="X26" t="s">
         <v>33</v>
       </c>
-      <c r="J26" t="s">
+      <c r="Y26" t="s">
         <v>34</v>
       </c>
-      <c r="K26" t="s">
+      <c r="Z26" t="s">
         <v>56</v>
       </c>
-      <c r="L26" t="s">
+      <c r="AA26" t="s">
         <v>17</v>
       </c>
-      <c r="M26" t="s">
+      <c r="AB26" t="s">
         <v>17</v>
       </c>
-      <c r="N26">
+      <c r="AC26">
         <v>-75.085050800000005</v>
       </c>
-      <c r="O26">
+      <c r="AD26">
         <v>5.3392876999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:30" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:30" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:30" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:30" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:30" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:30" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
